--- a/upload/customer.xlsx
+++ b/upload/customer.xlsx
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -89,13 +89,25 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,25 +424,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.423" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -502,6 +521,372 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
